--- a/biology/Médecine/1374_en_santé_et_médecine/1374_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1374_en_santé_et_médecine/1374_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1374_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1374_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1374 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1374_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1374_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le roi Charles V ordonne aux propriétaires de maisons parisiennes d'y installer des latrines pour « éviter l'infection et puanteur au-dedans desdites maisons et en garantir celles qui sont voisines[1] ».
-Érection de l'hôpital d'Auxonne, en Franche-Comté[2].
-Fondation de l'hôpital Saint-Jean de Verdun en Franche-Comté[3].
-Un hôpital[4] est mentionné à Newykestrete[5] dans le Sussex en Angleterre, dans le testament de John de Bishopstone, chancelier de Chichester[6].
-La cité de Reggio d'Émilie, en Italie, prend les premières mesures de quarantaine connues[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le roi Charles V ordonne aux propriétaires de maisons parisiennes d'y installer des latrines pour « éviter l'infection et puanteur au-dedans desdites maisons et en garantir celles qui sont voisines ».
+Érection de l'hôpital d'Auxonne, en Franche-Comté.
+Fondation de l'hôpital Saint-Jean de Verdun en Franche-Comté.
+Un hôpital est mentionné à Newykestrete dans le Sussex en Angleterre, dans le testament de John de Bishopstone, chancelier de Chichester.
+La cité de Reggio d'Émilie, en Italie, prend les premières mesures de quarantaine connues.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1374_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1374_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1356-1374 : fl. Étienne Degat, maître en médecine à Avignon, médecin du couvent Sainte-Catherine, confrère de la Major[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1356-1374 : fl. Étienne Degat, maître en médecine à Avignon, médecin du couvent Sainte-Catherine, confrère de la Major.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1374_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1374_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean Cadard (mort en 1449), médecin des enfants du roi Charles VI et précepteur du Dauphin, puis Premier médecin et conseiller de Charles VII[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean Cadard (mort en 1449), médecin des enfants du roi Charles VI et précepteur du Dauphin, puis Premier médecin et conseiller de Charles VII.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1374_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1374_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ibn al-Khatib (né en 1313), historien, homme de lettres et médecin arabe andalou, auteur, parmi d'autres nombreux ouvrages de médecine, de l'Amal Man Tabba Li-Man Habba, traité de pathologie dédié au sultan du Maroc Ibrahim ibn Ali (en)[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ibn al-Khatib (né en 1313), historien, homme de lettres et médecin arabe andalou, auteur, parmi d'autres nombreux ouvrages de médecine, de l'Amal Man Tabba Li-Man Habba, traité de pathologie dédié au sultan du Maroc Ibrahim ibn Ali (en).</t>
         </is>
       </c>
     </row>
